--- a/Coachingslijst.xlsx
+++ b/Coachingslijst.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://delijn.sharepoint.com/teams/CTM-Opmakensteekkaarten-Coachingslijst/Gedeelde documenten/Coachingslijst/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5828" documentId="13_ncr:1_{51182797-F005-4DB1-88AE-A2BD37A2289A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41EF49EE-3D61-4591-B337-C1545A355CDD}"/>
+  <xr:revisionPtr revIDLastSave="5847" documentId="13_ncr:1_{51182797-F005-4DB1-88AE-A2BD37A2289A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{189E6E79-25D6-4021-9D98-D3CFEA02DFC6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="456" xr2:uid="{F593FE5F-E761-4E50-85A0-6D382CBE16EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30768" windowHeight="17508" tabRatio="456" activeTab="1" xr2:uid="{F593FE5F-E761-4E50-85A0-6D382CBE16EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Coaching" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4080" uniqueCount="1148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4093" uniqueCount="1148">
   <si>
     <t>Prioriteit</t>
   </si>
@@ -3734,7 +3734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -3860,10 +3860,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4223,13 +4219,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E35C665E-1BC9-45FA-904E-AC7D2815CE69}" name="Tabel3" displayName="Tabel3" ref="A1:Q159" totalsRowShown="0" headerRowDxfId="38" tableBorderDxfId="37">
-  <autoFilter ref="A1:Q159" xr:uid="{E35C665E-1BC9-45FA-904E-AC7D2815CE69}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="41230"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q159" xr:uid="{E35C665E-1BC9-45FA-904E-AC7D2815CE69}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{61A5FFFD-3AE6-4582-95C3-5FDD7CB637B3}" name="Prioriteit" dataDxfId="36"/>
     <tableColumn id="3" xr3:uid="{52A951B9-B59E-44E6-8A45-E1DDDAE59F2B}" name="P-nr" dataDxfId="35"/>
@@ -4612,32 +4602,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310BB95E-2952-4B45-98D4-2E7AF749FAF9}">
   <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32" style="9" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="16" width="15.5703125" customWidth="1"/>
-    <col min="17" max="17" width="22.42578125" customWidth="1"/>
-    <col min="18" max="18" width="25.85546875" customWidth="1"/>
+    <col min="15" max="16" width="15.5546875" customWidth="1"/>
+    <col min="17" max="17" width="22.44140625" customWidth="1"/>
+    <col min="18" max="18" width="25.88671875" customWidth="1"/>
     <col min="19" max="19" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -4696,7 +4686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -4737,7 +4727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -4781,7 +4771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -4825,7 +4815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -4866,7 +4856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
@@ -4904,7 +4894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
@@ -4942,7 +4932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
@@ -4983,7 +4973,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
@@ -5025,7 +5015,7 @@
       </c>
       <c r="N9" s="12"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
@@ -5066,7 +5056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
@@ -5082,7 +5072,7 @@
       <c r="F11" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="51" t="str">
+      <c r="G11" t="str">
         <f>_xlfn.CONCAT(Tabel2[[#This Row],[P-nr]]," ",Tabel2[[#This Row],[Naam]]," ",Tabel2[[#This Row],[Voornaam]]," ",)</f>
         <v xml:space="preserve">30901 De Meulenaere Kurt  </v>
       </c>
@@ -5099,7 +5089,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -5140,7 +5130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C13" s="12">
         <v>45771</v>
       </c>
@@ -5175,7 +5165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C14" s="12">
         <v>45749</v>
       </c>
@@ -5210,7 +5200,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C15" s="12">
         <v>45721</v>
       </c>
@@ -5246,7 +5236,7 @@
       </c>
       <c r="N15" s="12"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C16" s="12">
         <v>45334</v>
       </c>
@@ -5281,7 +5271,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="12">
         <v>45714</v>
       </c>
@@ -5312,11 +5302,11 @@
         <f>VLOOKUP(Tabel2[[#This Row],[P-nr]],'data Chauffeur'!A:F,5,FALSE)</f>
         <v>BR15</v>
       </c>
-      <c r="K17" s="52" t="s">
+      <c r="K17" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="12">
         <v>45714</v>
       </c>
@@ -5351,7 +5341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="3:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="12">
         <v>45721</v>
       </c>
@@ -5386,7 +5376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="12">
         <v>45721</v>
       </c>
@@ -5424,7 +5414,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="12">
         <v>45744</v>
       </c>
@@ -5459,7 +5449,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="12">
         <v>45736</v>
       </c>
@@ -5494,7 +5484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="12">
         <v>45736</v>
       </c>
@@ -5529,7 +5519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="12">
         <v>45714</v>
       </c>
@@ -5564,7 +5554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="12">
         <v>45727</v>
       </c>
@@ -5599,7 +5589,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="12">
         <v>45434</v>
       </c>
@@ -5634,7 +5624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="12">
         <v>45754</v>
       </c>
@@ -5669,7 +5659,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="12">
         <v>45593</v>
       </c>
@@ -5701,7 +5691,7 @@
         <v>RESF</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="12">
         <v>45524</v>
       </c>
@@ -5736,7 +5726,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="12">
         <v>45772</v>
       </c>
@@ -5771,7 +5761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="12">
         <v>45721</v>
       </c>
@@ -5806,7 +5796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C32" s="12">
         <v>45714</v>
       </c>
@@ -5841,7 +5831,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C33" s="12">
         <v>45593</v>
       </c>
@@ -5876,7 +5866,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C34" s="12">
         <v>45727</v>
       </c>
@@ -5914,7 +5904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C35" s="12">
         <v>45714</v>
       </c>
@@ -5949,7 +5939,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C36" s="12">
         <v>45714</v>
       </c>
@@ -5984,7 +5974,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C37" s="12">
         <v>45506</v>
       </c>
@@ -6022,7 +6012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C38" s="12">
         <v>45749</v>
       </c>
@@ -6057,7 +6047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C39" s="12">
         <v>45506</v>
       </c>
@@ -6092,7 +6082,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C40" s="12">
         <v>45743</v>
       </c>
@@ -6127,7 +6117,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C41" s="12">
         <v>45721</v>
       </c>
@@ -6165,7 +6155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C42" s="12">
         <v>45736</v>
       </c>
@@ -6203,7 +6193,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C43" s="12">
         <v>45569</v>
       </c>
@@ -6235,7 +6225,7 @@
         <v>GW10</v>
       </c>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C44" s="12">
         <v>45736</v>
       </c>
@@ -6273,7 +6263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C45" s="12">
         <v>45736</v>
       </c>
@@ -6311,7 +6301,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C46" s="12">
         <v>45721</v>
       </c>
@@ -6346,7 +6336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C47" s="12">
         <v>45721</v>
       </c>
@@ -6381,7 +6371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C48" s="12">
         <v>45700</v>
       </c>
@@ -6416,7 +6406,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C49" s="12">
         <v>45729</v>
       </c>
@@ -6454,7 +6444,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="3:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C50" s="12">
         <v>45715</v>
       </c>
@@ -6492,7 +6482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C51" s="12">
         <v>45813</v>
       </c>
@@ -6527,7 +6517,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C52" s="12">
         <v>45819</v>
       </c>
@@ -6565,7 +6555,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C53" s="12">
         <v>45840</v>
       </c>
@@ -6601,7 +6591,7 @@
       </c>
       <c r="N53" s="12"/>
     </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C54" s="12">
         <v>45842</v>
       </c>
@@ -6637,7 +6627,7 @@
       </c>
       <c r="N54" s="12"/>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C55" s="12">
         <v>45849</v>
       </c>
@@ -6673,7 +6663,7 @@
       </c>
       <c r="N55" s="12"/>
     </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C56" s="12">
         <v>45853</v>
       </c>
@@ -6711,7 +6701,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C57" s="12">
         <v>45868</v>
       </c>
@@ -6745,7 +6735,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C58" s="12">
         <v>45870</v>
       </c>
@@ -6782,7 +6772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C59" s="12">
         <v>45881</v>
       </c>
@@ -6816,7 +6806,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C60" s="12">
         <v>45883</v>
       </c>
@@ -6851,7 +6841,7 @@
       </c>
       <c r="N60" s="12"/>
     </row>
-    <row r="61" spans="3:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C61" s="12">
         <v>45888</v>
       </c>
@@ -6888,7 +6878,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C62" s="12">
         <v>45895</v>
       </c>
@@ -6925,7 +6915,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C63" s="12">
         <v>45898</v>
       </c>
@@ -6959,7 +6949,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C64" s="12">
         <v>45898</v>
       </c>
@@ -6993,7 +6983,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C65" s="12">
         <v>45898</v>
       </c>
@@ -7027,7 +7017,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C66" s="12">
         <v>45898</v>
       </c>
@@ -7061,7 +7051,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C67" s="12">
         <v>45898</v>
       </c>
@@ -7095,7 +7085,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C68" s="12">
         <v>45898</v>
       </c>
@@ -7129,7 +7119,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C69" s="12">
         <v>45898</v>
       </c>
@@ -7163,7 +7153,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C70" s="12">
         <v>45898</v>
       </c>
@@ -7197,7 +7187,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C71" s="12">
         <v>45898</v>
       </c>
@@ -7231,7 +7221,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C72" s="12">
         <v>45898</v>
       </c>
@@ -7265,7 +7255,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C73" s="12">
         <v>45898</v>
       </c>
@@ -7299,7 +7289,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C74" s="12">
         <v>45898</v>
       </c>
@@ -7333,7 +7323,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C75" s="12">
         <v>45898</v>
       </c>
@@ -7367,7 +7357,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C76" s="12">
         <v>45898</v>
       </c>
@@ -7401,7 +7391,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C77" s="12">
         <v>45898</v>
       </c>
@@ -7435,7 +7425,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C78" s="12">
         <v>45898</v>
       </c>
@@ -7469,7 +7459,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C79" s="12">
         <v>45898</v>
       </c>
@@ -7503,7 +7493,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="80" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C80" s="12">
         <v>45898</v>
       </c>
@@ -7537,7 +7527,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="12">
         <v>45898</v>
       </c>
@@ -7571,7 +7561,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="12">
         <v>45898</v>
       </c>
@@ -7716,33 +7706,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9EC04C-009E-4585-84F8-A49F0DC373AE}">
   <dimension ref="A1:S170"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I174" sqref="I174"/>
+    <sheetView tabSelected="1" topLeftCell="E38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O129" sqref="O129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="9" customWidth="1"/>
-    <col min="11" max="11" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.7109375" style="33" customWidth="1"/>
+    <col min="11" max="11" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.6640625" style="33" customWidth="1"/>
     <col min="14" max="14" width="37" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.85546875" customWidth="1"/>
+    <col min="17" max="17" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -7795,7 +7785,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
       <c r="B2" s="40">
         <v>19810</v>
@@ -7848,7 +7838,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
       <c r="B3" s="40">
         <v>39779</v>
@@ -7905,7 +7895,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
       <c r="B4" s="40">
         <v>36513</v>
@@ -7960,7 +7950,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="24"/>
       <c r="B5" s="40">
         <v>35026</v>
@@ -8011,7 +8001,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="24"/>
       <c r="B6" s="40">
         <v>34286</v>
@@ -8062,7 +8052,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="40">
         <v>40266</v>
@@ -8113,7 +8103,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="40">
         <v>37543</v>
@@ -8166,7 +8156,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="40">
         <v>29821</v>
@@ -8219,7 +8209,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
       <c r="B10" s="40">
         <v>39677</v>
@@ -8274,7 +8264,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="40">
         <v>39728</v>
@@ -8323,7 +8313,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="40">
         <v>41012</v>
@@ -8376,7 +8366,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>19</v>
       </c>
@@ -8431,7 +8421,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="24"/>
       <c r="B14" s="40">
         <v>31092</v>
@@ -8486,7 +8476,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="40">
         <v>27711</v>
@@ -8529,13 +8519,15 @@
       <c r="N15" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="24"/>
+      <c r="O15" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="P15" s="24"/>
       <c r="Q15" s="24" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="40">
         <v>19249</v>
@@ -8588,7 +8580,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
       <c r="B17" s="40">
         <v>33982</v>
@@ -8631,13 +8623,15 @@
         <v>86</v>
       </c>
       <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
+      <c r="O17" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="P17" s="24"/>
       <c r="Q17" s="24" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
       <c r="B18" s="40">
         <v>33982</v>
@@ -8684,13 +8678,15 @@
       <c r="N18" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="O18" s="24"/>
+      <c r="O18" s="24" t="s">
+        <v>78</v>
+      </c>
       <c r="P18" s="24"/>
       <c r="Q18" s="24" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="24"/>
       <c r="B19" s="40">
         <v>27711</v>
@@ -8735,13 +8731,15 @@
         <v>77</v>
       </c>
       <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
+      <c r="O19" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="P19" s="24"/>
       <c r="Q19" s="24" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
       <c r="B20" s="40">
         <v>36626</v>
@@ -8798,7 +8796,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="24"/>
       <c r="B21" s="40">
         <v>39660</v>
@@ -8855,7 +8853,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22" s="40">
         <v>38938</v>
@@ -8910,7 +8908,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="24"/>
       <c r="B23" s="40">
         <v>40645</v>
@@ -8961,7 +8959,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="24"/>
       <c r="B24" s="40">
         <v>40294</v>
@@ -9018,7 +9016,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="24"/>
       <c r="B25" s="40">
         <v>28717</v>
@@ -9073,7 +9071,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
       <c r="B26" s="40">
         <v>33986</v>
@@ -9130,7 +9128,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
       <c r="B27" s="40">
         <v>41091</v>
@@ -9185,7 +9183,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="24"/>
       <c r="B28" s="40">
         <v>35450</v>
@@ -9234,7 +9232,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="24"/>
       <c r="B29" s="40">
         <v>27153</v>
@@ -9283,7 +9281,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30" s="40">
         <v>41348</v>
@@ -9336,7 +9334,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="45">
         <v>41246</v>
@@ -9390,7 +9388,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="24"/>
       <c r="B32" s="40">
         <v>39581</v>
@@ -9439,7 +9437,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="24"/>
       <c r="B33" s="40">
         <v>38580</v>
@@ -9492,7 +9490,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="24"/>
       <c r="B34" s="40">
         <v>39660</v>
@@ -9547,7 +9545,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="24"/>
       <c r="B35" s="40">
         <v>40486</v>
@@ -9598,7 +9596,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
       <c r="B36" s="40">
         <v>39901</v>
@@ -9647,7 +9645,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="24"/>
       <c r="B37" s="40">
         <v>11508</v>
@@ -9698,7 +9696,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
       <c r="B38" s="40">
         <v>32169</v>
@@ -9751,7 +9749,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
       <c r="B39" s="40">
         <v>21424</v>
@@ -9804,7 +9802,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="24"/>
       <c r="B40" s="40">
         <v>36425</v>
@@ -9861,7 +9859,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="24"/>
       <c r="B41" s="40">
         <v>24367</v>
@@ -9918,7 +9916,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="24"/>
       <c r="B42" s="40">
         <v>33639</v>
@@ -9973,7 +9971,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
       <c r="B43" s="45">
         <v>29477</v>
@@ -10027,7 +10025,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
       <c r="B44" s="45">
         <v>39829</v>
@@ -10078,7 +10076,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="19"/>
       <c r="B45" s="45">
         <v>4720</v>
@@ -10126,7 +10124,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="19"/>
       <c r="B46" s="45">
         <v>23791</v>
@@ -10164,11 +10162,14 @@
       <c r="L46" s="41">
         <v>45771</v>
       </c>
+      <c r="O46" t="s">
+        <v>80</v>
+      </c>
       <c r="Q46" s="24" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="19"/>
       <c r="B47" s="45">
         <v>14625</v>
@@ -10225,7 +10226,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="19"/>
       <c r="B48" s="45">
         <v>11866</v>
@@ -10282,7 +10283,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="19"/>
       <c r="B49" s="45">
         <v>32168</v>
@@ -10339,7 +10340,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="19"/>
       <c r="B50" s="45">
         <v>40036</v>
@@ -10393,7 +10394,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="19"/>
       <c r="B51" s="45">
         <v>12684</v>
@@ -10441,7 +10442,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="19" t="s">
         <v>19</v>
       </c>
@@ -10494,7 +10495,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="45">
         <v>25679</v>
       </c>
@@ -10538,7 +10539,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="45">
         <v>40938</v>
       </c>
@@ -10589,7 +10590,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" s="45">
         <v>40138</v>
       </c>
@@ -10645,7 +10646,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="45">
         <v>41348</v>
       </c>
@@ -10695,7 +10696,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B57" s="45">
         <v>19917</v>
       </c>
@@ -10751,7 +10752,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B58" s="45">
         <v>38475</v>
       </c>
@@ -10804,7 +10805,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B59" s="45">
         <v>39654</v>
       </c>
@@ -10860,7 +10861,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B60" s="45">
         <v>40478</v>
       </c>
@@ -10910,7 +10911,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B61" s="45">
         <v>40652</v>
       </c>
@@ -10960,7 +10961,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="19" t="s">
         <v>19</v>
       </c>
@@ -11014,7 +11015,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B63" s="45">
         <v>38691</v>
       </c>
@@ -11070,7 +11071,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B64" s="45">
         <v>37543</v>
       </c>
@@ -11117,7 +11118,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B65" s="45">
         <v>11508</v>
       </c>
@@ -11164,7 +11165,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="24"/>
       <c r="B66" s="40">
         <v>29746</v>
@@ -11221,7 +11222,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="24"/>
       <c r="B67" s="40">
         <v>41101</v>
@@ -11272,7 +11273,7 @@
       </c>
       <c r="Q67" s="24"/>
     </row>
-    <row r="68" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="24"/>
       <c r="B68" s="40">
         <v>19917</v>
@@ -11323,7 +11324,7 @@
       </c>
       <c r="Q68" s="24"/>
     </row>
-    <row r="69" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="24"/>
       <c r="B69" s="40">
         <v>35709</v>
@@ -11370,7 +11371,7 @@
       </c>
       <c r="Q69" s="24"/>
     </row>
-    <row r="70" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="24"/>
       <c r="B70" s="40">
         <v>35379</v>
@@ -11415,7 +11416,7 @@
       <c r="P70" s="24"/>
       <c r="Q70" s="24"/>
     </row>
-    <row r="71" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="24"/>
       <c r="B71" s="40">
         <v>40223</v>
@@ -11456,7 +11457,7 @@
       <c r="P71" s="24"/>
       <c r="Q71" s="24"/>
     </row>
-    <row r="72" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
         <v>19</v>
       </c>
@@ -11511,7 +11512,7 @@
       </c>
       <c r="Q72" s="24"/>
     </row>
-    <row r="73" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="24"/>
       <c r="B73" s="40">
         <v>38807</v>
@@ -11556,7 +11557,7 @@
       <c r="P73" s="24"/>
       <c r="Q73" s="24"/>
     </row>
-    <row r="74" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="24"/>
       <c r="B74" s="40">
         <v>25873</v>
@@ -11601,7 +11602,7 @@
       <c r="P74" s="24"/>
       <c r="Q74" s="24"/>
     </row>
-    <row r="75" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="24"/>
       <c r="B75" s="40">
         <v>41162</v>
@@ -11646,7 +11647,7 @@
       <c r="P75" s="24"/>
       <c r="Q75" s="24"/>
     </row>
-    <row r="76" spans="1:17" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="24"/>
       <c r="B76" s="40">
         <v>41092</v>
@@ -11689,7 +11690,7 @@
       <c r="P76" s="24"/>
       <c r="Q76" s="24"/>
     </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B77" s="45">
         <v>41520</v>
       </c>
@@ -11734,7 +11735,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B78" s="45">
         <v>38475</v>
       </c>
@@ -11779,7 +11780,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B79" s="45">
         <v>40521</v>
       </c>
@@ -11821,7 +11822,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B80" s="45">
         <v>41064</v>
       </c>
@@ -11866,7 +11867,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B81" s="45">
         <v>36425</v>
       </c>
@@ -11911,7 +11912,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B82" s="45">
         <v>34044</v>
       </c>
@@ -11956,7 +11957,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B83" s="45">
         <v>26959</v>
       </c>
@@ -12001,7 +12002,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B84" s="45">
         <v>39529</v>
       </c>
@@ -12046,7 +12047,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B85" s="45">
         <v>40859</v>
       </c>
@@ -12088,7 +12089,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B86" s="45">
         <v>38580</v>
       </c>
@@ -12138,7 +12139,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B87" s="45">
         <v>21506</v>
       </c>
@@ -12185,7 +12186,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B88" s="45">
         <v>40200</v>
       </c>
@@ -12232,7 +12233,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B89" s="45">
         <v>41520</v>
       </c>
@@ -12279,7 +12280,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B90" s="45">
         <v>40294</v>
       </c>
@@ -12326,7 +12327,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="19"/>
       <c r="B91" s="45">
         <v>39712</v>
@@ -12374,7 +12375,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="19" t="s">
         <v>19</v>
       </c>
@@ -12430,7 +12431,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="19" t="s">
         <v>19</v>
       </c>
@@ -12489,7 +12490,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="19"/>
       <c r="B94" s="45">
         <v>12173</v>
@@ -12537,7 +12538,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="19" t="s">
         <v>19</v>
       </c>
@@ -12582,7 +12583,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B96" s="46">
         <v>37950</v>
       </c>
@@ -12631,7 +12632,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B97" s="45">
         <v>40938</v>
       </c>
@@ -12680,7 +12681,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B98" s="45">
         <v>36426</v>
       </c>
@@ -12735,7 +12736,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B99" s="45">
         <v>40443</v>
       </c>
@@ -12788,7 +12789,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B100" s="45">
         <v>40859</v>
       </c>
@@ -12834,7 +12835,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B101" s="45">
         <v>35220</v>
       </c>
@@ -12881,7 +12882,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B102" s="45">
         <v>36627</v>
       </c>
@@ -12931,7 +12932,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="19"/>
       <c r="B103" s="45">
         <v>39858</v>
@@ -12988,7 +12989,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="19"/>
       <c r="B104" s="45">
         <v>41520</v>
@@ -13045,7 +13046,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B105" s="45">
         <v>40414</v>
       </c>
@@ -13098,7 +13099,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B106" s="45">
         <v>40745</v>
       </c>
@@ -13140,7 +13141,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="19"/>
       <c r="B107" s="45">
         <v>38047</v>
@@ -13182,7 +13183,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="19"/>
       <c r="B108" s="45">
         <v>31360</v>
@@ -13230,7 +13231,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B109" s="45">
         <v>33965</v>
       </c>
@@ -13280,7 +13281,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B110" s="45">
         <v>17951</v>
       </c>
@@ -13323,11 +13324,14 @@
       <c r="N110" s="11">
         <v>45838</v>
       </c>
+      <c r="O110" t="s">
+        <v>78</v>
+      </c>
       <c r="Q110" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B111" s="45">
         <v>20400</v>
       </c>
@@ -13368,11 +13372,14 @@
         <v>45838</v>
       </c>
       <c r="N111" s="11"/>
+      <c r="O111" t="s">
+        <v>80</v>
+      </c>
       <c r="Q111" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B112" s="45">
         <v>17566</v>
       </c>
@@ -13413,11 +13420,14 @@
         <v>45841</v>
       </c>
       <c r="N112" s="11"/>
+      <c r="O112" t="s">
+        <v>80</v>
+      </c>
       <c r="Q112" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B113" s="45">
         <v>16897</v>
       </c>
@@ -13458,11 +13468,14 @@
         <v>45841</v>
       </c>
       <c r="N113" s="11"/>
+      <c r="O113" t="s">
+        <v>80</v>
+      </c>
       <c r="Q113" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B114" s="45">
         <v>36512</v>
       </c>
@@ -13503,11 +13516,14 @@
         <v>77</v>
       </c>
       <c r="N114" s="11"/>
+      <c r="O114" t="s">
+        <v>80</v>
+      </c>
       <c r="Q114" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B115" s="45">
         <v>40138</v>
       </c>
@@ -13555,7 +13571,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" s="19"/>
       <c r="B116" s="45">
         <v>39712</v>
@@ -13597,11 +13613,14 @@
         <v>45841</v>
       </c>
       <c r="N116" s="11"/>
+      <c r="O116" t="s">
+        <v>78</v>
+      </c>
       <c r="Q116" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B117" s="45">
         <v>39660</v>
       </c>
@@ -13649,7 +13668,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B118" s="45">
         <v>40939</v>
       </c>
@@ -13705,7 +13724,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B119" s="45">
         <v>31731</v>
       </c>
@@ -13758,7 +13777,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B120" s="45">
         <v>16095</v>
       </c>
@@ -13807,7 +13826,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B121" s="45">
         <v>15282</v>
       </c>
@@ -13858,7 +13877,7 @@
       <c r="R121" s="37"/>
       <c r="S121" s="38"/>
     </row>
-    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B122" s="45">
         <v>16899</v>
       </c>
@@ -13913,7 +13932,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B123" s="45">
         <v>38740</v>
       </c>
@@ -13963,7 +13982,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B124" s="45">
         <v>14261</v>
       </c>
@@ -14013,7 +14032,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B125" s="45">
         <v>31118</v>
       </c>
@@ -14061,7 +14080,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B126" s="45">
         <v>17931</v>
       </c>
@@ -14109,7 +14128,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B127" s="45">
         <v>41871</v>
       </c>
@@ -14151,11 +14170,14 @@
         <v>45855</v>
       </c>
       <c r="N127" s="11"/>
+      <c r="O127" t="s">
+        <v>80</v>
+      </c>
       <c r="Q127" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B128" s="45">
         <v>39654</v>
       </c>
@@ -14198,11 +14220,14 @@
         <v>45855</v>
       </c>
       <c r="N128" s="11"/>
+      <c r="O128" t="s">
+        <v>80</v>
+      </c>
       <c r="Q128" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="129" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B129" s="45">
         <v>9158</v>
       </c>
@@ -14252,7 +14277,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="130" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B130" s="45">
         <v>28071</v>
       </c>
@@ -14305,7 +14330,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="131" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B131" s="45">
         <v>40939</v>
       </c>
@@ -14358,7 +14383,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="132" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B132" s="45">
         <v>33049</v>
       </c>
@@ -14405,7 +14430,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="133" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B133" s="45">
         <v>32168</v>
       </c>
@@ -14452,7 +14477,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="134" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B134" s="45">
         <v>27672</v>
       </c>
@@ -14499,7 +14524,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="135" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B135" s="45">
         <v>21382</v>
       </c>
@@ -14546,7 +14571,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="136" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B136" s="45">
         <v>21382</v>
       </c>
@@ -14599,7 +14624,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="137" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B137" s="45">
         <v>21507</v>
       </c>
@@ -14646,7 +14671,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="138" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B138" s="45">
         <v>40939</v>
       </c>
@@ -14699,7 +14724,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="139" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B139" s="45">
         <v>40478</v>
       </c>
@@ -14752,7 +14777,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="140" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B140" s="45">
         <v>31165</v>
       </c>
@@ -14799,7 +14824,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="141" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B141" s="45">
         <v>31668</v>
       </c>
@@ -14846,7 +14871,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="142" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B142" s="45">
         <v>19087</v>
       </c>
@@ -14893,7 +14918,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="143" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B143" s="45">
         <v>8016</v>
       </c>
@@ -14940,7 +14965,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="144" spans="2:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B144" s="45">
         <v>19810</v>
       </c>
@@ -14987,7 +15012,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B145" s="45">
         <v>12514</v>
       </c>
@@ -15034,7 +15059,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B146" s="45">
         <v>41230</v>
       </c>
@@ -15084,7 +15109,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B147" s="45">
         <v>15218</v>
       </c>
@@ -15134,7 +15159,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="43"/>
       <c r="B148" s="45">
         <v>21581</v>
@@ -15184,7 +15209,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="44"/>
       <c r="B149" s="45">
         <v>16094</v>
@@ -15234,7 +15259,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A150" s="43"/>
       <c r="B150" s="45">
         <v>35862</v>
@@ -15281,7 +15306,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B151" s="45">
         <v>40278</v>
       </c>
@@ -15328,7 +15353,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B152" s="45">
         <v>40134</v>
       </c>
@@ -15375,7 +15400,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="153" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="19"/>
       <c r="B153" s="45">
         <v>36635</v>
@@ -15426,7 +15451,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B154" s="45">
         <v>26792</v>
       </c>
@@ -15473,7 +15498,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="155" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B155" s="45">
         <v>31150</v>
       </c>
@@ -15523,7 +15548,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B156" s="45">
         <v>36512</v>
       </c>
@@ -15570,7 +15595,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" s="19"/>
       <c r="B157" s="45">
         <v>41091</v>
@@ -15616,7 +15641,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" s="19"/>
       <c r="B158" s="45">
         <v>35419</v>
@@ -15662,7 +15687,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" s="19"/>
       <c r="B159" s="45">
         <v>34019</v>
@@ -15708,14 +15733,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" s="43"/>
       <c r="E160" s="33"/>
       <c r="F160" s="33"/>
       <c r="K160" s="33"/>
       <c r="L160" s="12"/>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" s="43"/>
       <c r="B161" s="48"/>
       <c r="E161" s="33"/>
@@ -15723,7 +15748,7 @@
       <c r="K161" s="33"/>
       <c r="M161" s="49"/>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" s="50"/>
       <c r="B162" s="48"/>
       <c r="E162" s="33"/>
@@ -15731,7 +15756,7 @@
       <c r="K162" s="33"/>
       <c r="M162" s="49"/>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" s="50"/>
       <c r="B163" s="48"/>
       <c r="E163" s="33"/>
@@ -15739,109 +15764,109 @@
       <c r="K163" s="33"/>
       <c r="M163" s="49"/>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="12"/>
       <c r="B164" s="48"/>
       <c r="M164" s="49"/>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A166" s="53" t="s">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A166" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="B166" s="53"/>
-      <c r="C166" s="53"/>
-      <c r="D166" s="53"/>
-      <c r="E166" s="53"/>
-      <c r="F166" s="53"/>
-      <c r="G166" s="53"/>
-      <c r="H166" s="53"/>
-      <c r="I166" s="53"/>
-      <c r="J166" s="53"/>
-      <c r="K166" s="53"/>
-      <c r="L166" s="53"/>
-      <c r="M166" s="53"/>
-      <c r="N166" s="53"/>
-      <c r="O166" s="53"/>
-      <c r="P166" s="53"/>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A167" s="53"/>
-      <c r="B167" s="53"/>
-      <c r="C167" s="53"/>
-      <c r="D167" s="53"/>
-      <c r="E167" s="53"/>
-      <c r="F167" s="53"/>
-      <c r="G167" s="53"/>
-      <c r="H167" s="53"/>
-      <c r="I167" s="53"/>
-      <c r="J167" s="53"/>
-      <c r="K167" s="53"/>
-      <c r="L167" s="53"/>
-      <c r="M167" s="53"/>
-      <c r="N167" s="53"/>
-      <c r="O167" s="53"/>
-      <c r="P167" s="53"/>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A168" s="53"/>
-      <c r="B168" s="53"/>
-      <c r="C168" s="53"/>
-      <c r="D168" s="53"/>
-      <c r="E168" s="53"/>
-      <c r="F168" s="53"/>
-      <c r="G168" s="53"/>
-      <c r="H168" s="53"/>
-      <c r="I168" s="53"/>
-      <c r="J168" s="53"/>
-      <c r="K168" s="53"/>
-      <c r="L168" s="53"/>
-      <c r="M168" s="53"/>
-      <c r="N168" s="53"/>
-      <c r="O168" s="53"/>
-      <c r="P168" s="53"/>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A169" s="53"/>
-      <c r="B169" s="53"/>
-      <c r="C169" s="53"/>
-      <c r="D169" s="53"/>
-      <c r="E169" s="53"/>
-      <c r="F169" s="53"/>
-      <c r="G169" s="53"/>
-      <c r="H169" s="53"/>
-      <c r="I169" s="53"/>
-      <c r="J169" s="53"/>
-      <c r="K169" s="53"/>
-      <c r="L169" s="53"/>
-      <c r="M169" s="53"/>
-      <c r="N169" s="53"/>
-      <c r="O169" s="53"/>
-      <c r="P169" s="53"/>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A170" s="53"/>
-      <c r="B170" s="53"/>
-      <c r="C170" s="53"/>
-      <c r="D170" s="53"/>
-      <c r="E170" s="53"/>
-      <c r="F170" s="53"/>
-      <c r="G170" s="53"/>
-      <c r="H170" s="53"/>
-      <c r="I170" s="53"/>
-      <c r="J170" s="53"/>
-      <c r="K170" s="53"/>
-      <c r="L170" s="53"/>
-      <c r="M170" s="53"/>
-      <c r="N170" s="53"/>
-      <c r="O170" s="53"/>
-      <c r="P170" s="53"/>
+      <c r="B166" s="51"/>
+      <c r="C166" s="51"/>
+      <c r="D166" s="51"/>
+      <c r="E166" s="51"/>
+      <c r="F166" s="51"/>
+      <c r="G166" s="51"/>
+      <c r="H166" s="51"/>
+      <c r="I166" s="51"/>
+      <c r="J166" s="51"/>
+      <c r="K166" s="51"/>
+      <c r="L166" s="51"/>
+      <c r="M166" s="51"/>
+      <c r="N166" s="51"/>
+      <c r="O166" s="51"/>
+      <c r="P166" s="51"/>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A167" s="51"/>
+      <c r="B167" s="51"/>
+      <c r="C167" s="51"/>
+      <c r="D167" s="51"/>
+      <c r="E167" s="51"/>
+      <c r="F167" s="51"/>
+      <c r="G167" s="51"/>
+      <c r="H167" s="51"/>
+      <c r="I167" s="51"/>
+      <c r="J167" s="51"/>
+      <c r="K167" s="51"/>
+      <c r="L167" s="51"/>
+      <c r="M167" s="51"/>
+      <c r="N167" s="51"/>
+      <c r="O167" s="51"/>
+      <c r="P167" s="51"/>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A168" s="51"/>
+      <c r="B168" s="51"/>
+      <c r="C168" s="51"/>
+      <c r="D168" s="51"/>
+      <c r="E168" s="51"/>
+      <c r="F168" s="51"/>
+      <c r="G168" s="51"/>
+      <c r="H168" s="51"/>
+      <c r="I168" s="51"/>
+      <c r="J168" s="51"/>
+      <c r="K168" s="51"/>
+      <c r="L168" s="51"/>
+      <c r="M168" s="51"/>
+      <c r="N168" s="51"/>
+      <c r="O168" s="51"/>
+      <c r="P168" s="51"/>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A169" s="51"/>
+      <c r="B169" s="51"/>
+      <c r="C169" s="51"/>
+      <c r="D169" s="51"/>
+      <c r="E169" s="51"/>
+      <c r="F169" s="51"/>
+      <c r="G169" s="51"/>
+      <c r="H169" s="51"/>
+      <c r="I169" s="51"/>
+      <c r="J169" s="51"/>
+      <c r="K169" s="51"/>
+      <c r="L169" s="51"/>
+      <c r="M169" s="51"/>
+      <c r="N169" s="51"/>
+      <c r="O169" s="51"/>
+      <c r="P169" s="51"/>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A170" s="51"/>
+      <c r="B170" s="51"/>
+      <c r="C170" s="51"/>
+      <c r="D170" s="51"/>
+      <c r="E170" s="51"/>
+      <c r="F170" s="51"/>
+      <c r="G170" s="51"/>
+      <c r="H170" s="51"/>
+      <c r="I170" s="51"/>
+      <c r="J170" s="51"/>
+      <c r="K170" s="51"/>
+      <c r="L170" s="51"/>
+      <c r="M170" s="51"/>
+      <c r="N170" s="51"/>
+      <c r="O170" s="51"/>
+      <c r="P170" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A166:P170"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A171:A1048576 A1:A166">
+  <conditionalFormatting sqref="A1:A166 A171:A1048576">
     <cfRule type="cellIs" dxfId="8" priority="324" operator="equal">
       <formula>"ja"</formula>
     </cfRule>
@@ -15851,7 +15876,7 @@
       <formula>"voldoende"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O171:O1048576 O1:O165">
+  <conditionalFormatting sqref="O1:O165 O171:O1048576">
     <cfRule type="cellIs" dxfId="6" priority="703" operator="equal">
       <formula>"zeer goed"</formula>
     </cfRule>
@@ -15871,7 +15896,7 @@
   <conditionalFormatting sqref="O173:O1048576 O171 O1:O165">
     <cfRule type="duplicateValues" dxfId="1" priority="779"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P171 N172 P173:P1048576 P1:P165">
+  <conditionalFormatting sqref="P1:P165 P171 N172 P173:P1048576">
     <cfRule type="cellIs" dxfId="0" priority="323" operator="equal">
       <formula>"ja"</formula>
     </cfRule>
@@ -15916,15 +15941,15 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -15938,7 +15963,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <f>COUNTIF(Coaching!I1:I9976,Tabel1[[#This Row],[Teamcoach]])</f>
         <v>6</v>
@@ -15955,7 +15980,7 @@
         <v>Christoff Rotty</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f>COUNTIF(Coaching!I2:I9977,Tabel1[[#This Row],[Teamcoach]])</f>
         <v>11</v>
@@ -15972,7 +15997,7 @@
         <v>Bart Van der Beken</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f>COUNTIF(Coaching!I2:I9978,Tabel1[[#This Row],[Teamcoach]])</f>
         <v>13</v>
@@ -15989,7 +16014,7 @@
         <v>Els Dewulf</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f>COUNTIF(Coaching!I3:I9979,Tabel1[[#This Row],[Teamcoach]])</f>
         <v>11</v>
@@ -16006,7 +16031,7 @@
         <v>Els Vanhoe</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <f>COUNTIF(Coaching!I4:I9980,Tabel1[[#This Row],[Teamcoach]])</f>
         <v>10</v>
@@ -16023,7 +16048,7 @@
         <v>Dominique De Clercq</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f>COUNTIF(Coaching!I5:I9981,Tabel1[[#This Row],[Teamcoach]])</f>
         <v>6</v>
@@ -16040,7 +16065,7 @@
         <v>Steven Storm</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <f>COUNTIF(Coaching!I6:I9982,Tabel1[[#This Row],[Teamcoach]])</f>
         <v>11</v>
@@ -16057,7 +16082,7 @@
         <v>Lucie Vande Velde</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <f>COUNTIF(Coaching!I7:I9983,Tabel1[[#This Row],[Teamcoach]])</f>
         <v>10</v>
@@ -16091,15 +16116,15 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>167</v>
       </c>
@@ -16128,7 +16153,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -16157,7 +16182,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>176</v>
       </c>
@@ -16186,7 +16211,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -16203,7 +16228,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -16220,7 +16245,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>188</v>
       </c>
@@ -16231,7 +16256,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>56</v>
       </c>
@@ -16242,7 +16267,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>82</v>
       </c>
@@ -16250,7 +16275,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>145</v>
       </c>
@@ -16258,7 +16283,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>193</v>
       </c>
@@ -16266,7 +16291,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>96</v>
       </c>
@@ -16274,7 +16299,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>92</v>
       </c>
@@ -16282,7 +16307,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>196</v>
       </c>
@@ -16290,7 +16315,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>76</v>
       </c>
@@ -16298,47 +16323,47 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>203</v>
       </c>
@@ -16356,16 +16381,16 @@
       <selection activeCell="E2" sqref="E2:E585"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>204</v>
       </c>
@@ -16385,7 +16410,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>32168</v>
       </c>
@@ -16405,7 +16430,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>38634</v>
       </c>
@@ -16425,7 +16450,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>35619</v>
       </c>
@@ -16445,7 +16470,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>35491</v>
       </c>
@@ -16465,7 +16490,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>41588</v>
       </c>
@@ -16485,7 +16510,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>23818</v>
       </c>
@@ -16505,7 +16530,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>35006</v>
       </c>
@@ -16525,7 +16550,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>41012</v>
       </c>
@@ -16545,7 +16570,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>37261</v>
       </c>
@@ -16565,7 +16590,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>40266</v>
       </c>
@@ -16585,7 +16610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>39184</v>
       </c>
@@ -16605,7 +16630,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>21429</v>
       </c>
@@ -16625,7 +16650,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>35645</v>
       </c>
@@ -16645,7 +16670,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>41870</v>
       </c>
@@ -16665,7 +16690,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>41246</v>
       </c>
@@ -16685,7 +16710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>35598</v>
       </c>
@@ -16705,7 +16730,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>9979</v>
       </c>
@@ -16725,7 +16750,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8196</v>
       </c>
@@ -16745,7 +16770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>41948</v>
       </c>
@@ -16765,7 +16790,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>40761</v>
       </c>
@@ -16785,7 +16810,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>35030</v>
       </c>
@@ -16805,7 +16830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>10324</v>
       </c>
@@ -16825,7 +16850,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>37496</v>
       </c>
@@ -16845,7 +16870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>39850</v>
       </c>
@@ -16865,7 +16890,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>13017</v>
       </c>
@@ -16885,7 +16910,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>21662</v>
       </c>
@@ -16905,7 +16930,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26639</v>
       </c>
@@ -16925,7 +16950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>19127</v>
       </c>
@@ -16945,7 +16970,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>17555</v>
       </c>
@@ -16965,7 +16990,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>14625</v>
       </c>
@@ -16985,7 +17010,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>25680</v>
       </c>
@@ -17005,7 +17030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>27672</v>
       </c>
@@ -17025,7 +17050,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>19016</v>
       </c>
@@ -17045,7 +17070,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>41887</v>
       </c>
@@ -17065,7 +17090,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>21428</v>
       </c>
@@ -17085,7 +17110,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>15852</v>
       </c>
@@ -17105,7 +17130,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>33639</v>
       </c>
@@ -17125,7 +17150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>40744</v>
       </c>
@@ -17145,7 +17170,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>41383</v>
       </c>
@@ -17165,7 +17190,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>23545</v>
       </c>
@@ -17185,7 +17210,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>15676</v>
       </c>
@@ -17205,7 +17230,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>10150</v>
       </c>
@@ -17225,7 +17250,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>35463</v>
       </c>
@@ -17245,7 +17270,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>34890</v>
       </c>
@@ -17265,7 +17290,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>34019</v>
       </c>
@@ -17285,7 +17310,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>31600</v>
       </c>
@@ -17305,7 +17330,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>30119</v>
       </c>
@@ -17325,7 +17350,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>12124</v>
       </c>
@@ -17345,7 +17370,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>32092</v>
       </c>
@@ -17365,7 +17390,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>34198</v>
       </c>
@@ -17385,7 +17410,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>40138</v>
       </c>
@@ -17405,7 +17430,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>41348</v>
       </c>
@@ -17425,7 +17450,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>33982</v>
       </c>
@@ -17445,7 +17470,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>41384</v>
       </c>
@@ -17465,7 +17490,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>38346</v>
       </c>
@@ -17485,7 +17510,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>14425</v>
       </c>
@@ -17505,7 +17530,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>27153</v>
       </c>
@@ -17525,7 +17550,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>42047</v>
       </c>
@@ -17545,7 +17570,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5559</v>
       </c>
@@ -17565,7 +17590,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>16098</v>
       </c>
@@ -17585,7 +17610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>41091</v>
       </c>
@@ -17605,7 +17630,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>38579</v>
       </c>
@@ -17625,7 +17650,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>36154</v>
       </c>
@@ -17645,7 +17670,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>39651</v>
       </c>
@@ -17665,7 +17690,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>22244</v>
       </c>
@@ -17685,7 +17710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>37662</v>
       </c>
@@ -17705,7 +17730,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>29539</v>
       </c>
@@ -17725,7 +17750,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>27209</v>
       </c>
@@ -17745,7 +17770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>26384</v>
       </c>
@@ -17765,7 +17790,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>26198</v>
       </c>
@@ -17785,7 +17810,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>36289</v>
       </c>
@@ -17805,7 +17830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>31776</v>
       </c>
@@ -17825,7 +17850,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>21892</v>
       </c>
@@ -17845,7 +17870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>13257</v>
       </c>
@@ -17865,7 +17890,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>7748</v>
       </c>
@@ -17885,7 +17910,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>37216</v>
       </c>
@@ -17905,7 +17930,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>25487</v>
       </c>
@@ -17925,7 +17950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>19675</v>
       </c>
@@ -17945,7 +17970,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>32951</v>
       </c>
@@ -17965,7 +17990,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>14261</v>
       </c>
@@ -17985,7 +18010,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>40222</v>
       </c>
@@ -18005,7 +18030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>40134</v>
       </c>
@@ -18025,7 +18050,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>39829</v>
       </c>
@@ -18045,7 +18070,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>25679</v>
       </c>
@@ -18065,7 +18090,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>31550</v>
       </c>
@@ -18085,7 +18110,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>38688</v>
       </c>
@@ -18105,7 +18130,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>41101</v>
       </c>
@@ -18125,7 +18150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>32458</v>
       </c>
@@ -18145,7 +18170,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>30292</v>
       </c>
@@ -18165,7 +18190,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>40939</v>
       </c>
@@ -18185,7 +18210,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>38550</v>
       </c>
@@ -18205,7 +18230,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>31165</v>
       </c>
@@ -18225,7 +18250,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>8393</v>
       </c>
@@ -18245,7 +18270,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>4793</v>
       </c>
@@ -18265,7 +18290,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>40110</v>
       </c>
@@ -18285,7 +18310,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>36559</v>
       </c>
@@ -18305,7 +18330,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>20612</v>
       </c>
@@ -18325,7 +18350,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>29370</v>
       </c>
@@ -18345,7 +18370,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>36543</v>
       </c>
@@ -18365,7 +18390,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>38731</v>
       </c>
@@ -18385,7 +18410,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>35709</v>
       </c>
@@ -18405,7 +18430,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>38580</v>
       </c>
@@ -18425,7 +18450,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>35379</v>
       </c>
@@ -18445,7 +18470,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>41671</v>
       </c>
@@ -18465,7 +18490,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>28071</v>
       </c>
@@ -18485,7 +18510,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>40856</v>
       </c>
@@ -18505,7 +18530,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>5813</v>
       </c>
@@ -18525,7 +18550,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>14070</v>
       </c>
@@ -18545,7 +18570,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>39145</v>
       </c>
@@ -18565,7 +18590,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>41918</v>
       </c>
@@ -18585,7 +18610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>37509</v>
       </c>
@@ -18605,7 +18630,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>16282</v>
       </c>
@@ -18625,7 +18650,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>17954</v>
       </c>
@@ -18645,7 +18670,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>41632</v>
       </c>
@@ -18665,7 +18690,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>36505</v>
       </c>
@@ -18685,7 +18710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>16546</v>
       </c>
@@ -18705,7 +18730,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>35026</v>
       </c>
@@ -18725,7 +18750,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>9158</v>
       </c>
@@ -18745,7 +18770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>21383</v>
       </c>
@@ -18765,7 +18790,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>13345</v>
       </c>
@@ -18785,7 +18810,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>15626</v>
       </c>
@@ -18805,7 +18830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>8016</v>
       </c>
@@ -18825,7 +18850,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>26137</v>
       </c>
@@ -18845,7 +18870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>36625</v>
       </c>
@@ -18865,7 +18890,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>39889</v>
       </c>
@@ -18885,7 +18910,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>23481</v>
       </c>
@@ -18905,7 +18930,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>31601</v>
       </c>
@@ -18925,7 +18950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>28690</v>
       </c>
@@ -18945,7 +18970,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>37345</v>
       </c>
@@ -18965,7 +18990,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>17566</v>
       </c>
@@ -18985,7 +19010,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>37254</v>
       </c>
@@ -19005,7 +19030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>36513</v>
       </c>
@@ -19025,7 +19050,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>36428</v>
       </c>
@@ -19045,7 +19070,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>41357</v>
       </c>
@@ -19065,7 +19090,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>39712</v>
       </c>
@@ -19085,7 +19110,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>13398</v>
       </c>
@@ -19105,7 +19130,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>39930</v>
       </c>
@@ -19125,7 +19150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>32169</v>
       </c>
@@ -19145,7 +19170,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>39528</v>
       </c>
@@ -19165,7 +19190,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>22625</v>
       </c>
@@ -19185,7 +19210,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>5599</v>
       </c>
@@ -19205,7 +19230,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>41721</v>
       </c>
@@ -19225,7 +19250,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>40005</v>
       </c>
@@ -19245,7 +19270,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>36820</v>
       </c>
@@ -19265,7 +19290,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>14665</v>
       </c>
@@ -19285,7 +19310,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>6310</v>
       </c>
@@ -19305,7 +19330,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>5061</v>
       </c>
@@ -19325,7 +19350,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>36336</v>
       </c>
@@ -19345,7 +19370,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>22052</v>
       </c>
@@ -19365,7 +19390,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>19087</v>
       </c>
@@ -19385,7 +19410,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>16094</v>
       </c>
@@ -19405,7 +19430,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>15219</v>
       </c>
@@ -19425,7 +19450,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>36507</v>
       </c>
@@ -19445,7 +19470,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>40422</v>
       </c>
@@ -19465,7 +19490,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>33488</v>
       </c>
@@ -19485,7 +19510,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>35862</v>
       </c>
@@ -19505,7 +19530,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>33640</v>
       </c>
@@ -19525,7 +19550,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>32369</v>
       </c>
@@ -19545,7 +19570,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>21582</v>
       </c>
@@ -19565,7 +19590,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>21506</v>
       </c>
@@ -19585,7 +19610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>19848</v>
       </c>
@@ -19605,7 +19630,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>16275</v>
       </c>
@@ -19625,7 +19650,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>15726</v>
       </c>
@@ -19645,7 +19670,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>39529</v>
       </c>
@@ -19665,7 +19690,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>26197</v>
       </c>
@@ -19685,7 +19710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>6092</v>
       </c>
@@ -19705,7 +19730,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>31361</v>
       </c>
@@ -19725,7 +19750,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>26331</v>
       </c>
@@ -19745,7 +19770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>22202</v>
       </c>
@@ -19765,7 +19790,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>11866</v>
       </c>
@@ -19785,7 +19810,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>32611</v>
       </c>
@@ -19805,7 +19830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>41619</v>
       </c>
@@ -19825,7 +19850,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>28910</v>
       </c>
@@ -19845,7 +19870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>41482</v>
       </c>
@@ -19865,7 +19890,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>25873</v>
       </c>
@@ -19885,7 +19910,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>39532</v>
       </c>
@@ -19905,7 +19930,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>31634</v>
       </c>
@@ -19925,7 +19950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>26959</v>
       </c>
@@ -19945,7 +19970,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>10326</v>
       </c>
@@ -19965,7 +19990,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>28830</v>
       </c>
@@ -19985,7 +20010,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>40036</v>
       </c>
@@ -20005,7 +20030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>41296</v>
       </c>
@@ -20025,7 +20050,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>31111</v>
       </c>
@@ -20045,7 +20070,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>28794</v>
       </c>
@@ -20065,7 +20090,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>37600</v>
       </c>
@@ -20085,7 +20110,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>36425</v>
       </c>
@@ -20105,7 +20130,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>11508</v>
       </c>
@@ -20125,7 +20150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>41786</v>
       </c>
@@ -20145,7 +20170,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>31404</v>
       </c>
@@ -20165,7 +20190,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>40938</v>
       </c>
@@ -20185,7 +20210,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>37564</v>
       </c>
@@ -20205,7 +20230,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>16623</v>
       </c>
@@ -20225,7 +20250,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>39101</v>
       </c>
@@ -20245,7 +20270,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>37808</v>
       </c>
@@ -20265,7 +20290,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>37439</v>
       </c>
@@ -20285,7 +20310,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>35005</v>
       </c>
@@ -20305,7 +20330,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>30623</v>
       </c>
@@ -20325,7 +20350,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>23543</v>
       </c>
@@ -20345,7 +20370,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>29591</v>
       </c>
@@ -20365,7 +20390,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>26266</v>
       </c>
@@ -20385,7 +20410,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>20954</v>
       </c>
@@ -20405,7 +20430,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>39831</v>
       </c>
@@ -20425,7 +20450,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>33986</v>
       </c>
@@ -20445,7 +20470,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>38648</v>
       </c>
@@ -20465,7 +20490,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>39779</v>
       </c>
@@ -20485,7 +20510,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>37179</v>
       </c>
@@ -20505,7 +20530,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>34286</v>
       </c>
@@ -20525,7 +20550,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>21812</v>
       </c>
@@ -20545,7 +20570,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>26960</v>
       </c>
@@ -20565,7 +20590,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>39379</v>
       </c>
@@ -20585,7 +20610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>31150</v>
       </c>
@@ -20605,7 +20630,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>28737</v>
       </c>
@@ -20625,7 +20650,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>26521</v>
       </c>
@@ -20645,7 +20670,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>41838</v>
       </c>
@@ -20665,7 +20690,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>36838</v>
       </c>
@@ -20685,7 +20710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>41949</v>
       </c>
@@ -20705,7 +20730,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>21121</v>
       </c>
@@ -20725,7 +20750,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>26695</v>
       </c>
@@ -20745,7 +20770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>31635</v>
       </c>
@@ -20765,7 +20790,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>31118</v>
       </c>
@@ -20785,7 +20810,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>27786</v>
       </c>
@@ -20805,7 +20830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>40403</v>
       </c>
@@ -20825,7 +20850,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>40143</v>
       </c>
@@ -20845,7 +20870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>37908</v>
       </c>
@@ -20865,7 +20890,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>21160</v>
       </c>
@@ -20885,7 +20910,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>29646</v>
       </c>
@@ -20905,7 +20930,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>40969</v>
       </c>
@@ -20925,7 +20950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>35216</v>
       </c>
@@ -20945,7 +20970,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>37131</v>
       </c>
@@ -20965,7 +20990,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>37313</v>
       </c>
@@ -20985,7 +21010,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>31668</v>
       </c>
@@ -21005,7 +21030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>35334</v>
       </c>
@@ -21025,7 +21050,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>33600</v>
       </c>
@@ -21045,7 +21070,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>30389</v>
       </c>
@@ -21065,7 +21090,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>38633</v>
       </c>
@@ -21085,7 +21110,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>34325</v>
       </c>
@@ -21105,7 +21130,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>38047</v>
       </c>
@@ -21125,7 +21150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>36577</v>
       </c>
@@ -21145,7 +21170,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>12684</v>
       </c>
@@ -21165,7 +21190,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>11021</v>
       </c>
@@ -21185,7 +21210,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>39929</v>
       </c>
@@ -21205,7 +21230,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>20653</v>
       </c>
@@ -21225,7 +21250,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>25994</v>
       </c>
@@ -21245,7 +21270,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>20376</v>
       </c>
@@ -21265,7 +21290,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>31731</v>
       </c>
@@ -21285,7 +21310,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>35493</v>
       </c>
@@ -21305,7 +21330,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>40486</v>
       </c>
@@ -21325,7 +21350,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>8918</v>
       </c>
@@ -21345,7 +21370,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>3926</v>
       </c>
@@ -21365,7 +21390,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>36845</v>
       </c>
@@ -21385,7 +21410,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>21382</v>
       </c>
@@ -21405,7 +21430,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>38555</v>
       </c>
@@ -21425,7 +21450,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>40591</v>
       </c>
@@ -21445,7 +21470,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>40443</v>
       </c>
@@ -21465,7 +21490,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>39988</v>
       </c>
@@ -21485,7 +21510,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>35495</v>
       </c>
@@ -21505,7 +21530,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>35494</v>
       </c>
@@ -21525,7 +21550,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>22143</v>
       </c>
@@ -21545,7 +21570,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>39985</v>
       </c>
@@ -21565,7 +21590,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>18624</v>
       </c>
@@ -21585,7 +21610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>18141</v>
       </c>
@@ -21605,7 +21630,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>41032</v>
       </c>
@@ -21625,7 +21650,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>11120</v>
       </c>
@@ -21645,7 +21670,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>26334</v>
       </c>
@@ -21665,7 +21690,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>16899</v>
       </c>
@@ -21685,7 +21710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>37258</v>
       </c>
@@ -21705,7 +21730,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>40590</v>
       </c>
@@ -21725,7 +21750,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>39654</v>
       </c>
@@ -21745,7 +21770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>39581</v>
       </c>
@@ -21765,7 +21790,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>20375</v>
       </c>
@@ -21785,7 +21810,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>28995</v>
       </c>
@@ -21805,7 +21830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>27865</v>
       </c>
@@ -21825,7 +21850,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>28072</v>
       </c>
@@ -21845,7 +21870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>39014</v>
       </c>
@@ -21865,7 +21890,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>36624</v>
       </c>
@@ -21885,7 +21910,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>28165</v>
       </c>
@@ -21905,7 +21930,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>20402</v>
       </c>
@@ -21925,7 +21950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>18139</v>
       </c>
@@ -21945,7 +21970,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>12024</v>
       </c>
@@ -21965,7 +21990,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>15282</v>
       </c>
@@ -21985,7 +22010,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>31733</v>
       </c>
@@ -22005,7 +22030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>29818</v>
       </c>
@@ -22025,7 +22050,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>19810</v>
       </c>
@@ -22045,7 +22070,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>21509</v>
       </c>
@@ -22065,7 +22090,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>19520</v>
       </c>
@@ -22085,7 +22110,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>27673</v>
       </c>
@@ -22105,7 +22130,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>24155</v>
       </c>
@@ -22125,7 +22150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>14072</v>
       </c>
@@ -22145,7 +22170,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>39633</v>
       </c>
@@ -22165,7 +22190,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>40414</v>
       </c>
@@ -22185,7 +22210,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>40200</v>
       </c>
@@ -22205,7 +22230,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>36429</v>
       </c>
@@ -22225,7 +22250,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>42002</v>
       </c>
@@ -22245,7 +22270,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>34044</v>
       </c>
@@ -22265,7 +22290,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>31092</v>
       </c>
@@ -22285,7 +22310,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>37809</v>
       </c>
@@ -22305,7 +22330,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>34664</v>
       </c>
@@ -22325,7 +22350,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>32542</v>
       </c>
@@ -22345,7 +22370,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>31659</v>
       </c>
@@ -22365,7 +22390,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>20400</v>
       </c>
@@ -22385,7 +22410,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>20404</v>
       </c>
@@ -22405,7 +22430,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>12514</v>
       </c>
@@ -22425,7 +22450,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>41690</v>
       </c>
@@ -22445,7 +22470,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>39859</v>
       </c>
@@ -22465,7 +22490,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>39019</v>
       </c>
@@ -22485,7 +22510,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>37794</v>
       </c>
@@ -22505,7 +22530,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>38475</v>
       </c>
@@ -22525,7 +22550,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>15220</v>
       </c>
@@ -22545,7 +22570,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>29778</v>
       </c>
@@ -22565,7 +22590,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>22240</v>
       </c>
@@ -22585,7 +22610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>5080</v>
       </c>
@@ -22605,7 +22630,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>35246</v>
       </c>
@@ -22625,7 +22650,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>36626</v>
       </c>
@@ -22645,7 +22670,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>19249</v>
       </c>
@@ -22665,7 +22690,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>34328</v>
       </c>
@@ -22685,7 +22710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>16971</v>
       </c>
@@ -22705,7 +22730,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>23924</v>
       </c>
@@ -22725,7 +22750,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>40264</v>
       </c>
@@ -22745,7 +22770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>39927</v>
       </c>
@@ -22765,7 +22790,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>41344</v>
       </c>
@@ -22785,7 +22810,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>36569</v>
       </c>
@@ -22805,7 +22830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>19251</v>
       </c>
@@ -22825,7 +22850,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>19766</v>
       </c>
@@ -22845,7 +22870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>4608</v>
       </c>
@@ -22865,7 +22890,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>30901</v>
       </c>
@@ -22885,7 +22910,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>27577</v>
       </c>
@@ -22905,7 +22930,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>22767</v>
       </c>
@@ -22925,7 +22950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>39677</v>
       </c>
@@ -22945,7 +22970,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>8391</v>
       </c>
@@ -22965,7 +22990,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>4720</v>
       </c>
@@ -22985,7 +23010,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>39358</v>
       </c>
@@ -23005,7 +23030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>21424</v>
       </c>
@@ -23025,7 +23050,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>26102</v>
       </c>
@@ -23045,7 +23070,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>41162</v>
       </c>
@@ -23065,7 +23090,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>30271</v>
       </c>
@@ -23085,7 +23110,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>16095</v>
       </c>
@@ -23105,7 +23130,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>39267</v>
       </c>
@@ -23125,7 +23150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>38808</v>
       </c>
@@ -23145,7 +23170,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>11023</v>
       </c>
@@ -23165,7 +23190,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>23880</v>
       </c>
@@ -23185,7 +23210,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>31689</v>
       </c>
@@ -23205,7 +23230,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>30999</v>
       </c>
@@ -23225,7 +23250,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>40645</v>
       </c>
@@ -23245,7 +23270,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>38529</v>
       </c>
@@ -23265,7 +23290,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>29540</v>
       </c>
@@ -23285,7 +23310,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>21738</v>
       </c>
@@ -23305,7 +23330,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>13089</v>
       </c>
@@ -23325,7 +23350,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>39715</v>
       </c>
@@ -23345,7 +23370,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>39901</v>
       </c>
@@ -23365,7 +23390,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>33085</v>
       </c>
@@ -23385,7 +23410,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>39575</v>
       </c>
@@ -23405,7 +23430,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>40745</v>
       </c>
@@ -23425,7 +23450,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>19676</v>
       </c>
@@ -23445,7 +23470,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>30321</v>
       </c>
@@ -23465,7 +23490,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>38035</v>
       </c>
@@ -23485,7 +23510,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>16280</v>
       </c>
@@ -23505,7 +23530,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>5718</v>
       </c>
@@ -23525,7 +23550,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>10782</v>
       </c>
@@ -23545,7 +23570,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>34445</v>
       </c>
@@ -23565,7 +23590,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>20543</v>
       </c>
@@ -23585,7 +23610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>41871</v>
       </c>
@@ -23605,7 +23630,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>41685</v>
       </c>
@@ -23625,7 +23650,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>35761</v>
       </c>
@@ -23645,7 +23670,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>36635</v>
       </c>
@@ -23665,7 +23690,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>35450</v>
       </c>
@@ -23685,7 +23710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>33757</v>
       </c>
@@ -23705,7 +23730,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>36354</v>
       </c>
@@ -23725,7 +23750,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>14667</v>
       </c>
@@ -23745,7 +23770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>38205</v>
       </c>
@@ -23765,7 +23790,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>32387</v>
       </c>
@@ -23785,7 +23810,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>40469</v>
       </c>
@@ -23805,7 +23830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>39673</v>
       </c>
@@ -23825,7 +23850,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>32002</v>
       </c>
@@ -23845,7 +23870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>29478</v>
       </c>
@@ -23865,7 +23890,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>35395</v>
       </c>
@@ -23885,7 +23910,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>17931</v>
       </c>
@@ -23905,7 +23930,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>37542</v>
       </c>
@@ -23925,7 +23950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>41944</v>
       </c>
@@ -23945,7 +23970,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>38938</v>
       </c>
@@ -23965,7 +23990,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>34312</v>
       </c>
@@ -23985,7 +24010,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>39013</v>
       </c>
@@ -24005,7 +24030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>22877</v>
       </c>
@@ -24025,7 +24050,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>18173</v>
       </c>
@@ -24045,7 +24070,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>11213</v>
       </c>
@@ -24065,7 +24090,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>4943</v>
       </c>
@@ -24085,7 +24110,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>37208</v>
       </c>
@@ -24105,7 +24130,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>40444</v>
       </c>
@@ -24125,7 +24150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>39660</v>
       </c>
@@ -24145,7 +24170,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>35588</v>
       </c>
@@ -24165,7 +24190,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>40652</v>
       </c>
@@ -24185,7 +24210,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>33965</v>
       </c>
@@ -24205,7 +24230,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>36378</v>
       </c>
@@ -24225,7 +24250,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>26792</v>
       </c>
@@ -24245,7 +24270,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>29674</v>
       </c>
@@ -24265,7 +24290,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>4525</v>
       </c>
@@ -24285,7 +24310,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>26638</v>
       </c>
@@ -24305,7 +24330,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>25234</v>
       </c>
@@ -24325,7 +24350,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>19219</v>
       </c>
@@ -24345,7 +24370,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>40400</v>
       </c>
@@ -24365,7 +24390,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>27607</v>
       </c>
@@ -24385,7 +24410,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>36021</v>
       </c>
@@ -24405,7 +24430,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>20610</v>
       </c>
@@ -24425,7 +24450,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>25871</v>
       </c>
@@ -24445,7 +24470,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>35471</v>
       </c>
@@ -24465,7 +24490,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>11236</v>
       </c>
@@ -24485,7 +24510,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>16895</v>
       </c>
@@ -24505,7 +24530,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>29181</v>
       </c>
@@ -24525,7 +24550,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>26199</v>
       </c>
@@ -24545,7 +24570,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>21581</v>
       </c>
@@ -24565,7 +24590,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>37744</v>
       </c>
@@ -24585,7 +24610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>19917</v>
       </c>
@@ -24605,7 +24630,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>15412</v>
       </c>
@@ -24625,7 +24650,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>40278</v>
       </c>
@@ -24645,7 +24670,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>29271</v>
       </c>
@@ -24665,7 +24690,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>18051</v>
       </c>
@@ -24685,7 +24710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>15320</v>
       </c>
@@ -24705,7 +24730,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>41710</v>
       </c>
@@ -24725,7 +24750,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>31360</v>
       </c>
@@ -24745,7 +24770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>30967</v>
       </c>
@@ -24765,7 +24790,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>27186</v>
       </c>
@@ -24785,7 +24810,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>29821</v>
       </c>
@@ -24805,7 +24830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>6067</v>
       </c>
@@ -24825,7 +24850,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>38931</v>
       </c>
@@ -24845,7 +24870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>40393</v>
       </c>
@@ -24865,7 +24890,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>37132</v>
       </c>
@@ -24885,7 +24910,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>16545</v>
       </c>
@@ -24905,7 +24930,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>4764</v>
       </c>
@@ -24925,7 +24950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>20476</v>
       </c>
@@ -24945,7 +24970,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>9824</v>
       </c>
@@ -24965,7 +24990,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>40421</v>
       </c>
@@ -24985,7 +25010,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>35187</v>
       </c>
@@ -25005,7 +25030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>32091</v>
       </c>
@@ -25025,7 +25050,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>20542</v>
       </c>
@@ -25045,7 +25070,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>28717</v>
       </c>
@@ -25065,7 +25090,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>28821</v>
       </c>
@@ -25085,7 +25110,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>39858</v>
       </c>
@@ -25105,7 +25130,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>36358</v>
       </c>
@@ -25125,7 +25150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>21809</v>
       </c>
@@ -25145,7 +25170,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>32620</v>
       </c>
@@ -25165,7 +25190,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>4419</v>
       </c>
@@ -25185,7 +25210,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>37609</v>
       </c>
@@ -25205,7 +25230,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>31231</v>
       </c>
@@ -25225,7 +25250,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>29179</v>
       </c>
@@ -25245,7 +25270,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>41092</v>
       </c>
@@ -25265,7 +25290,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>7422</v>
       </c>
@@ -25285,7 +25310,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>37222</v>
       </c>
@@ -25305,7 +25330,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>35107</v>
       </c>
@@ -25325,7 +25350,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>15628</v>
       </c>
@@ -25345,7 +25370,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>9667</v>
       </c>
@@ -25365,7 +25390,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>40608</v>
       </c>
@@ -25385,7 +25410,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>18987</v>
       </c>
@@ -25405,7 +25430,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>22296</v>
       </c>
@@ -25425,7 +25450,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>6309</v>
       </c>
@@ -25445,7 +25470,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>41137</v>
       </c>
@@ -25465,7 +25490,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>35430</v>
       </c>
@@ -25485,7 +25510,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>33049</v>
       </c>
@@ -25505,7 +25530,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>15088</v>
       </c>
@@ -25525,7 +25550,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>36503</v>
       </c>
@@ -25545,7 +25570,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>34351</v>
       </c>
@@ -25565,7 +25590,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>20705</v>
       </c>
@@ -25585,7 +25610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>7746</v>
       </c>
@@ -25605,7 +25630,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>38481</v>
       </c>
@@ -25625,7 +25650,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>30323</v>
       </c>
@@ -25645,7 +25670,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>9062</v>
       </c>
@@ -25665,7 +25690,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>35419</v>
       </c>
@@ -25685,7 +25710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>16970</v>
       </c>
@@ -25705,7 +25730,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>24472</v>
       </c>
@@ -25725,7 +25750,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>36627</v>
       </c>
@@ -25745,7 +25770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>27711</v>
       </c>
@@ -25765,7 +25790,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>26847</v>
       </c>
@@ -25785,7 +25810,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>19088</v>
       </c>
@@ -25805,7 +25830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>12173</v>
       </c>
@@ -25825,7 +25850,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>12819</v>
       </c>
@@ -25845,7 +25870,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>21845</v>
       </c>
@@ -25865,7 +25890,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>8792</v>
       </c>
@@ -25885,7 +25910,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>9065</v>
       </c>
@@ -25905,7 +25930,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>33698</v>
       </c>
@@ -25925,7 +25950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>26265</v>
       </c>
@@ -25945,7 +25970,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>21124</v>
       </c>
@@ -25965,7 +25990,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>36337</v>
       </c>
@@ -25985,7 +26010,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>35120</v>
       </c>
@@ -26005,7 +26030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>27635</v>
       </c>
@@ -26025,7 +26050,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>33400</v>
       </c>
@@ -26045,7 +26070,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>26524</v>
       </c>
@@ -26065,7 +26090,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>16279</v>
       </c>
@@ -26085,7 +26110,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>13088</v>
       </c>
@@ -26105,7 +26130,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>17951</v>
       </c>
@@ -26125,7 +26150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>37951</v>
       </c>
@@ -26145,7 +26170,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>35623</v>
       </c>
@@ -26165,7 +26190,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>23700</v>
       </c>
@@ -26185,7 +26210,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>23791</v>
       </c>
@@ -26205,7 +26230,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>15218</v>
       </c>
@@ -26222,7 +26247,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>38283</v>
       </c>
@@ -26242,7 +26267,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>33450</v>
       </c>
@@ -26262,7 +26287,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>14021</v>
       </c>
@@ -26282,7 +26307,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>37683</v>
       </c>
@@ -26302,7 +26327,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>37999</v>
       </c>
@@ -26322,7 +26347,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>40362</v>
       </c>
@@ -26342,7 +26367,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>21249</v>
       </c>
@@ -26362,7 +26387,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>39558</v>
       </c>
@@ -26382,7 +26407,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>38807</v>
       </c>
@@ -26402,7 +26427,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>40058</v>
       </c>
@@ -26422,7 +26447,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>41874</v>
       </c>
@@ -26442,7 +26467,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>37950</v>
       </c>
@@ -26462,7 +26487,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>25993</v>
       </c>
@@ -26482,7 +26507,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>35490</v>
       </c>
@@ -26502,7 +26527,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>36512</v>
       </c>
@@ -26522,7 +26547,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>35414</v>
       </c>
@@ -26542,7 +26567,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>29477</v>
       </c>
@@ -26562,7 +26587,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>41888</v>
       </c>
@@ -26582,7 +26607,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>41550</v>
       </c>
@@ -26602,7 +26627,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>37226</v>
       </c>
@@ -26622,7 +26647,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>39907</v>
       </c>
@@ -26642,7 +26667,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>36438</v>
       </c>
@@ -26662,7 +26687,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>40223</v>
       </c>
@@ -26682,7 +26707,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>37543</v>
       </c>
@@ -26702,7 +26727,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>28835</v>
       </c>
@@ -26722,7 +26747,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>32245</v>
       </c>
@@ -26742,7 +26767,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>5076</v>
       </c>
@@ -26762,7 +26787,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>23918</v>
       </c>
@@ -26782,7 +26807,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>40890</v>
       </c>
@@ -26802,7 +26827,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>40006</v>
       </c>
@@ -26822,7 +26847,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>36275</v>
       </c>
@@ -26842,7 +26867,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>41882</v>
       </c>
@@ -26862,7 +26887,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>19086</v>
       </c>
@@ -26882,7 +26907,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>41521</v>
       </c>
@@ -26902,7 +26927,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>39856</v>
       </c>
@@ -26922,7 +26947,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>39610</v>
       </c>
@@ -26942,7 +26967,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>5063</v>
       </c>
@@ -26962,7 +26987,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>41230</v>
       </c>
@@ -26982,7 +27007,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>27713</v>
       </c>
@@ -27002,7 +27027,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>25486</v>
       </c>
@@ -27022,7 +27047,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>21507</v>
       </c>
@@ -27042,7 +27067,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>22042</v>
       </c>
@@ -27062,7 +27087,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>20656</v>
       </c>
@@ -27082,7 +27107,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>39728</v>
       </c>
@@ -27102,7 +27127,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>35434</v>
       </c>
@@ -27122,7 +27147,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>24156</v>
       </c>
@@ -27142,7 +27167,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>41520</v>
       </c>
@@ -27162,7 +27187,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>23790</v>
       </c>
@@ -27182,7 +27207,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>41064</v>
       </c>
@@ -27202,7 +27227,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>36228</v>
       </c>
@@ -27222,7 +27247,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>40201</v>
       </c>
@@ -27242,7 +27267,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>40294</v>
       </c>
@@ -27262,7 +27287,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>8394</v>
       </c>
@@ -27282,7 +27307,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>6229</v>
       </c>
@@ -27302,7 +27327,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>38740</v>
       </c>
@@ -27322,7 +27347,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>29746</v>
       </c>
@@ -27342,7 +27367,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>8708</v>
       </c>
@@ -27362,7 +27387,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>33551</v>
       </c>
@@ -27382,7 +27407,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>20655</v>
       </c>
@@ -27402,7 +27427,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>16897</v>
       </c>
@@ -27422,7 +27447,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>30121</v>
       </c>
@@ -27442,7 +27467,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>39183</v>
       </c>
@@ -27462,7 +27487,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>42022</v>
       </c>
@@ -27482,7 +27507,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>40055</v>
       </c>
@@ -27502,7 +27527,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>40478</v>
       </c>
@@ -27522,7 +27547,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>40521</v>
       </c>
@@ -27542,7 +27567,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>39251</v>
       </c>
@@ -27562,7 +27587,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>24367</v>
       </c>
@@ -27582,7 +27607,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>42015</v>
       </c>
@@ -27602,7 +27627,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>37936</v>
       </c>
@@ -27622,7 +27647,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>39146</v>
       </c>
@@ -27642,7 +27667,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>21466</v>
       </c>
@@ -27662,7 +27687,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>37907</v>
       </c>
@@ -27682,7 +27707,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>6049</v>
       </c>
@@ -27702,7 +27727,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>35397</v>
       </c>
@@ -27722,7 +27747,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>38013</v>
       </c>
@@ -27742,7 +27767,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>25829</v>
       </c>
@@ -27762,7 +27787,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>35220</v>
       </c>
@@ -27782,7 +27807,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>39106</v>
       </c>
@@ -27802,7 +27827,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>19691</v>
       </c>
@@ -27822,7 +27847,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>13020</v>
       </c>
@@ -27842,7 +27867,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>38551</v>
       </c>
@@ -27862,7 +27887,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>36663</v>
       </c>
@@ -27882,7 +27907,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>25733</v>
       </c>
@@ -27902,7 +27927,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>35055</v>
       </c>
@@ -27922,7 +27947,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>36426</v>
       </c>
@@ -27942,7 +27967,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>22416</v>
       </c>
@@ -27962,7 +27987,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>39899</v>
       </c>
@@ -27982,7 +28007,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>41821</v>
       </c>
@@ -28002,7 +28027,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>23326</v>
       </c>
@@ -28022,7 +28047,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>32528</v>
       </c>
@@ -28042,7 +28067,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>40859</v>
       </c>
@@ -28062,7 +28087,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>38691</v>
       </c>
@@ -28089,12 +28114,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BABA40AC322E4247AE7CB802C219210E" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="091f22780d69c37ad0a887b10b1a0799">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2bfb4ca-6bc6-4c14-a954-a38929ece6e4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="006df783f42031eefccbb2b77ef17bef" ns2:_="">
     <xsd:import namespace="d2bfb4ca-6bc6-4c14-a954-a38929ece6e4"/>
@@ -28238,6 +28257,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -28248,15 +28273,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AABF25EA-A7EB-41E2-8065-BEF79D9BAEF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A25AB59E-5CCD-4E14-BFB6-F23F69C5C3AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28274,6 +28290,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AABF25EA-A7EB-41E2-8065-BEF79D9BAEF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6B7A3F1-CC45-4FC0-B485-69FB7DFFE38E}">
   <ds:schemaRefs>

--- a/Coachingslijst.xlsx
+++ b/Coachingslijst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://delijn.sharepoint.com/teams/CTM-Opmakensteekkaarten-Coachingslijst/Gedeelde documenten/Coachingslijst/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5847" documentId="13_ncr:1_{51182797-F005-4DB1-88AE-A2BD37A2289A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{189E6E79-25D6-4021-9D98-D3CFEA02DFC6}"/>
+  <xr:revisionPtr revIDLastSave="5856" documentId="13_ncr:1_{51182797-F005-4DB1-88AE-A2BD37A2289A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55D478B4-302E-460C-BD0A-F9E104F7D868}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30768" windowHeight="17508" tabRatio="456" activeTab="1" xr2:uid="{F593FE5F-E761-4E50-85A0-6D382CBE16EB}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4093" uniqueCount="1148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4095" uniqueCount="1148">
   <si>
     <t>Prioriteit</t>
   </si>
@@ -4185,8 +4185,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9C435D86-3872-4CC1-9A54-581B1CD3E3B5}" name="Tabel2" displayName="Tabel2" ref="A1:S82" totalsRowShown="0">
-  <autoFilter ref="A1:S82" xr:uid="{9C435D86-3872-4CC1-9A54-581B1CD3E3B5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9C435D86-3872-4CC1-9A54-581B1CD3E3B5}" name="Tabel2" displayName="Tabel2" ref="A1:S83" totalsRowShown="0">
+  <autoFilter ref="A1:S83" xr:uid="{9C435D86-3872-4CC1-9A54-581B1CD3E3B5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S80">
     <sortCondition ref="B1:B80"/>
   </sortState>
@@ -4600,10 +4600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310BB95E-2952-4B45-98D4-2E7AF749FAF9}">
-  <dimension ref="A1:S82"/>
+  <dimension ref="A1:S83"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7592,6 +7592,40 @@
         <v>RESF</v>
       </c>
       <c r="K82" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C83" s="12">
+        <v>45898</v>
+      </c>
+      <c r="D83">
+        <v>11236</v>
+      </c>
+      <c r="E83" t="str">
+        <f>VLOOKUP(Tabel2[[#This Row],[P-nr]],'data Chauffeur'!A:F,2,FALSE)</f>
+        <v>Baert</v>
+      </c>
+      <c r="F83" t="str">
+        <f>VLOOKUP(Tabel2[[#This Row],[P-nr]],'data Chauffeur'!A:F,3,FALSE)</f>
+        <v>Freddy</v>
+      </c>
+      <c r="G83" t="str">
+        <f>_xlfn.CONCAT(Tabel2[[#This Row],[P-nr]]," ",Tabel2[[#This Row],[Naam]]," ",Tabel2[[#This Row],[Voornaam]]," ",)</f>
+        <v xml:space="preserve">11236 Baert Freddy </v>
+      </c>
+      <c r="H83" t="s">
+        <v>48</v>
+      </c>
+      <c r="I83" t="str">
+        <f>VLOOKUP(Tabel2[[#This Row],[P-nr]],'data Chauffeur'!A:F,4,FALSE)</f>
+        <v>Bart Van Der Beken</v>
+      </c>
+      <c r="J83" t="str">
+        <f>VLOOKUP(Tabel2[[#This Row],[P-nr]],'data Chauffeur'!A:F,5,FALSE)</f>
+        <v>TW24</v>
+      </c>
+      <c r="K83" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -15965,7 +15999,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <f>COUNTIF(Coaching!I1:I9976,Tabel1[[#This Row],[Teamcoach]])</f>
+        <f>COUNTIF(Coaching!I1:I9977,Tabel1[[#This Row],[Teamcoach]])</f>
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -15982,8 +16016,8 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <f>COUNTIF(Coaching!I2:I9977,Tabel1[[#This Row],[Teamcoach]])</f>
-        <v>11</v>
+        <f>COUNTIF(Coaching!I2:I9978,Tabel1[[#This Row],[Teamcoach]])</f>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>162</v>
@@ -15999,7 +16033,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <f>COUNTIF(Coaching!I2:I9978,Tabel1[[#This Row],[Teamcoach]])</f>
+        <f>COUNTIF(Coaching!I2:I9979,Tabel1[[#This Row],[Teamcoach]])</f>
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -16016,7 +16050,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <f>COUNTIF(Coaching!I3:I9979,Tabel1[[#This Row],[Teamcoach]])</f>
+        <f>COUNTIF(Coaching!I3:I9980,Tabel1[[#This Row],[Teamcoach]])</f>
         <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -16033,7 +16067,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <f>COUNTIF(Coaching!I4:I9980,Tabel1[[#This Row],[Teamcoach]])</f>
+        <f>COUNTIF(Coaching!I4:I9981,Tabel1[[#This Row],[Teamcoach]])</f>
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -16050,7 +16084,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <f>COUNTIF(Coaching!I5:I9981,Tabel1[[#This Row],[Teamcoach]])</f>
+        <f>COUNTIF(Coaching!I5:I9982,Tabel1[[#This Row],[Teamcoach]])</f>
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -16067,7 +16101,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <f>COUNTIF(Coaching!I6:I9982,Tabel1[[#This Row],[Teamcoach]])</f>
+        <f>COUNTIF(Coaching!I6:I9983,Tabel1[[#This Row],[Teamcoach]])</f>
         <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -16084,7 +16118,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <f>COUNTIF(Coaching!I7:I9983,Tabel1[[#This Row],[Teamcoach]])</f>
+        <f>COUNTIF(Coaching!I7:I9984,Tabel1[[#This Row],[Teamcoach]])</f>
         <v>10</v>
       </c>
       <c r="B9" s="10" t="s">
